--- a/Excel_Exercice04_OperateursFonctionsCond_Charles-Edward_Gibeau.xlsx
+++ b/Excel_Exercice04_OperateursFonctionsCond_Charles-Edward_Gibeau.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_cegibeau_etu_cvm_qc_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{25D12744-7287-4A9C-996A-597AB92DC3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5644531D-4AC0-4504-BDF8-67AF4025110D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A986A83-C8BF-4454-969E-D631FB0B1A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{12392C02-C153-415B-849B-035333E03F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats attendus" sheetId="6" r:id="rId1"/>
@@ -735,7 +736,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +824,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -1629,6 +1636,118 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1637,26 +1756,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1679,70 +1778,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1753,6 +1788,10 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1768,10 +1807,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2120,71 +2155,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AH55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
+    <sheetView topLeftCell="Q3" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="9" customWidth="1"/>
-    <col min="5" max="6" width="11.5" style="1"/>
-    <col min="7" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.5" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.5" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.5" style="15" customWidth="1"/>
-    <col min="18" max="19" width="14.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="0.83203125" style="15" customWidth="1"/>
-    <col min="21" max="32" width="10.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.83203125" style="15" customWidth="1"/>
-    <col min="34" max="34" width="14.33203125" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="9" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" style="15" customWidth="1"/>
+    <col min="18" max="19" width="14.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="0.85546875" style="15" customWidth="1"/>
+    <col min="21" max="32" width="10.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.85546875" style="15" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="109" t="s">
+    <row r="2" spans="2:34" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-    </row>
-    <row r="3" spans="2:34" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+    </row>
+    <row r="3" spans="2:34" ht="10.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
@@ -2192,123 +2228,123 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:34" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+    <row r="5" spans="2:34" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="L5" s="111" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="L5" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="R5" s="112" t="s">
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="R5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
     </row>
     <row r="6" spans="2:34" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103" t="s">
+    <row r="7" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="96" t="s">
+      <c r="H7" s="113"/>
+      <c r="I7" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="97"/>
+      <c r="J7" s="125"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="117" t="s">
+      <c r="L7" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="118"/>
-      <c r="P7" s="105" t="s">
+      <c r="M7" s="115"/>
+      <c r="N7" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="115"/>
+      <c r="P7" s="128" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="17"/>
-      <c r="R7" s="98" t="s">
+      <c r="R7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="99"/>
+      <c r="S7" s="117"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="98" t="s">
+      <c r="U7" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="99"/>
-      <c r="W7" s="98" t="s">
+      <c r="V7" s="117"/>
+      <c r="W7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="98" t="s">
+      <c r="X7" s="117"/>
+      <c r="Y7" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="98" t="s">
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="98" t="s">
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="98" t="s">
+      <c r="AD7" s="117"/>
+      <c r="AE7" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="99"/>
+      <c r="AF7" s="117"/>
       <c r="AG7" s="13"/>
-      <c r="AH7" s="107" t="s">
+      <c r="AH7" s="130" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:34" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="124"/>
+    <row r="8" spans="2:34" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="127"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="123"/>
       <c r="G8" s="18" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2370,7 @@
       <c r="O8" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="106"/>
+      <c r="P8" s="129"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="25" t="s">
         <v>9</v>
@@ -2380,9 +2416,9 @@
         <v>40</v>
       </c>
       <c r="AG8" s="16"/>
-      <c r="AH8" s="108"/>
-    </row>
-    <row r="9" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH8" s="131"/>
+    </row>
+    <row r="9" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
@@ -2493,7 +2529,7 @@
         <v>44123.068559822648</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="52" t="s">
         <v>16</v>
       </c>
@@ -2604,7 +2640,7 @@
         <v>46803.39935</v>
       </c>
     </row>
-    <row r="11" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="58" t="s">
         <v>17</v>
       </c>
@@ -2715,7 +2751,7 @@
         <v>53460.689941820616</v>
       </c>
     </row>
-    <row r="12" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="52" t="s">
         <v>18</v>
       </c>
@@ -2826,7 +2862,7 @@
         <v>56091.271043346751</v>
       </c>
     </row>
-    <row r="13" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="58" t="s">
         <v>19</v>
       </c>
@@ -2937,7 +2973,7 @@
         <v>66132.912698011307</v>
       </c>
     </row>
-    <row r="14" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="52" t="s">
         <v>20</v>
       </c>
@@ -3048,7 +3084,7 @@
         <v>47649.283900000002</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="58" t="s">
         <v>21</v>
       </c>
@@ -3159,7 +3195,7 @@
         <v>63645.095529451653</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="52" t="s">
         <v>22</v>
       </c>
@@ -3270,7 +3306,7 @@
         <v>59316.886749999991</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="58" t="s">
         <v>23</v>
       </c>
@@ -3381,7 +3417,7 @@
         <v>50963.016009185478</v>
       </c>
     </row>
-    <row r="18" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="52" t="s">
         <v>24</v>
       </c>
@@ -3492,7 +3528,7 @@
         <v>76982.1446</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="58" t="s">
         <v>25</v>
       </c>
@@ -3603,7 +3639,7 @@
         <v>30746.00995</v>
       </c>
     </row>
-    <row r="20" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
         <v>26</v>
       </c>
@@ -3714,7 +3750,7 @@
         <v>73562.36914414019</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="58" t="s">
         <v>27</v>
       </c>
@@ -3825,7 +3861,7 @@
         <v>49994.442049999998</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="52" t="s">
         <v>28</v>
       </c>
@@ -3936,7 +3972,7 @@
         <v>69812.4228</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="58" t="s">
         <v>29</v>
       </c>
@@ -4047,7 +4083,7 @@
         <v>37807.700653177162</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>30</v>
       </c>
@@ -4158,7 +4194,7 @@
         <v>73799.865699999995</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
         <v>31</v>
       </c>
@@ -4288,7 +4324,7 @@
       <c r="AG26" s="37"/>
       <c r="AH26" s="36"/>
     </row>
-    <row r="27" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I27" s="66">
         <f t="shared" ref="I27:J27" si="17">SUM(I9:I26)</f>
         <v>1508346.0400000003</v>
@@ -4384,46 +4420,46 @@
       <c r="AH28" s="5"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="100" t="s">
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="102"/>
-      <c r="G29" s="100" t="s">
+      <c r="F29" s="108"/>
+      <c r="G29" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
-      <c r="R29" s="100" t="s">
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="108"/>
+      <c r="R29" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="102"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="107"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="108"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E31" s="10"/>
@@ -4802,6 +4838,16 @@
     <sortCondition ref="AL9"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="R29:AH29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AH7:AH8"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="L5:P5"/>
@@ -4818,16 +4864,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="U7:V7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="R29:AH29"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AH7:AH8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
@@ -4840,199 +4876,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:AH35"/>
+  <dimension ref="B2:AH40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9:V25"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
+    </sheetView>
+    <sheetView topLeftCell="J1" workbookViewId="1">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" style="92"/>
-    <col min="4" max="4" width="11.5" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="92"/>
+    <col min="1" max="3" width="10.7109375" style="92"/>
+    <col min="4" max="4" width="11.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="92"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="92" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="92" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="125" t="s">
+    <row r="4" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="L5" s="125" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="L5" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="R5" s="126" t="s">
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="R5" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="133"/>
+      <c r="AH5" s="133"/>
     </row>
     <row r="6" spans="2:34" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="92" t="s">
+    <row r="7" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="J7" s="134"/>
+      <c r="L7" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="93" t="s">
+      <c r="M7" s="99"/>
+      <c r="N7" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="92" t="s">
+      <c r="R7" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="92" t="s">
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="92" t="s">
+      <c r="V7" s="101"/>
+      <c r="W7" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="92" t="s">
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="92" t="s">
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="92" t="s">
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" s="92" t="s">
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AH7" s="93" t="s">
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="102" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="J8" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="92" t="s">
+      <c r="L8" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="92" t="s">
+      <c r="M8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="92" t="s">
+      <c r="O8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="93"/>
-      <c r="R8" s="92" t="s">
+      <c r="P8" s="100"/>
+      <c r="R8" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="S8" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="92" t="s">
+      <c r="T8" s="101"/>
+      <c r="U8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="92" t="s">
+      <c r="V8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="92" t="s">
+      <c r="W8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="X8" s="92" t="s">
+      <c r="X8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="92" t="s">
+      <c r="Y8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="92" t="s">
+      <c r="Z8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="AA8" s="92" t="s">
+      <c r="AA8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" s="92" t="s">
+      <c r="AB8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="AC8" s="92" t="s">
+      <c r="AC8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="AD8" s="92" t="s">
+      <c r="AD8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="AE8" s="92" t="s">
+      <c r="AE8" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="AF8" s="92" t="s">
+      <c r="AF8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="AH8" s="93"/>
-    </row>
-    <row r="9" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+    </row>
+    <row r="9" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="93" t="s">
         <v>15</v>
       </c>
@@ -5089,7 +5146,7 @@
         <f>IF(F9&gt;0,"oui","non")</f>
         <v>oui</v>
       </c>
-      <c r="V9" s="131">
+      <c r="V9" s="96">
         <f>IF(U9="oui",(N9*0.01)+(O9*0.015),0)</f>
         <v>2575.0774499999998</v>
       </c>
@@ -5101,8 +5158,36 @@
         <f>IF(W9="oui",(N9-I9)/10,0)</f>
         <v>58.55599999999977</v>
       </c>
-    </row>
-    <row r="10" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="92" t="str">
+        <f>IF(O9&gt;J9,"oui","non")</f>
+        <v>non</v>
+      </c>
+      <c r="Z9" s="92">
+        <f>IF(Y9="oui",((O9-J9)/100)*15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="92" t="str">
+        <f>IF(P9&gt;=6,"oui","non")</f>
+        <v>oui</v>
+      </c>
+      <c r="AB9" s="92">
+        <f>IF(AA9="oui",((N9+O9)/100)*0.25,0)</f>
+        <v>501.86734999999999</v>
+      </c>
+      <c r="AC9" s="92" t="str">
+        <f>IF(AND( W9 = "oui", Y9 = "oui"), "oui","non")</f>
+        <v>non</v>
+      </c>
+      <c r="AD9" s="92">
+        <f>IF(AC9="oui", (((N9+O9)-(I9+J9))/100)*P9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="92" t="str">
+        <f>IF(AND(P9&gt;=6*(OR(W9="oui",Y9="oui"))),"oui","non")</f>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="93" t="s">
         <v>16</v>
       </c>
@@ -5159,20 +5244,48 @@
         <f t="shared" ref="U10:U25" si="4">IF(F10&gt;0,"oui","non")</f>
         <v>oui</v>
       </c>
-      <c r="V10" s="131">
+      <c r="V10" s="96">
         <f t="shared" ref="V10:V25" si="5">IF(U10="oui",(N10*0.01)+(O10*0.015),0)</f>
         <v>3002.9853499999999</v>
       </c>
       <c r="W10" s="92" t="str">
-        <f t="shared" ref="W10:W26" si="6">IF(N10&gt;I10,"oui","non")</f>
+        <f t="shared" ref="W10:W25" si="6">IF(N10&gt;I10,"oui","non")</f>
         <v>oui</v>
       </c>
       <c r="X10" s="92">
-        <f t="shared" ref="X10:X26" si="7">IF(W10="oui",(N10-I10)/10,0)</f>
+        <f t="shared" ref="X10:X25" si="7">IF(W10="oui",(N10-I10)/10,0)</f>
         <v>1438.9979999999996</v>
       </c>
-    </row>
-    <row r="11" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="92" t="str">
+        <f t="shared" ref="Y10:Y25" si="8">IF(O10&gt;J10,"oui","non")</f>
+        <v>non</v>
+      </c>
+      <c r="Z10" s="92">
+        <f t="shared" ref="Z10:Z25" si="9">IF(Y10="oui",((O10-J10)/100)*15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="92" t="str">
+        <f t="shared" ref="AA10:AA25" si="10">IF(P10&gt;=6,"oui","non")</f>
+        <v>non</v>
+      </c>
+      <c r="AB10" s="92">
+        <f t="shared" ref="AB10:AB25" si="11">IF(AA10="oui",((N10+O10)/100)*0.25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="92" t="str">
+        <f t="shared" ref="AC10:AC25" si="12">IF(AND( W10 = "oui", Y10 = "oui"), "oui","non")</f>
+        <v>non</v>
+      </c>
+      <c r="AD10" s="92">
+        <f t="shared" ref="AD10:AD25" si="13">IF(AC10="oui", (((N10+O10)-(I10+J10))/100)*P10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="92" t="str">
+        <f t="shared" ref="AE10:AE25" si="14">IF(AND(P10&gt;=6*(OR(W10="oui",Y10="oui"))),"oui","non")</f>
+        <v>non</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="93" t="s">
         <v>17</v>
       </c>
@@ -5229,7 +5342,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V11" s="131">
+      <c r="V11" s="96">
         <f t="shared" si="5"/>
         <v>3149.1246500000002</v>
       </c>
@@ -5241,8 +5354,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z11" s="92">
+        <f t="shared" si="9"/>
+        <v>365.26349999999945</v>
+      </c>
+      <c r="AA11" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB11" s="92">
+        <f t="shared" si="11"/>
+        <v>588.87225000000001</v>
+      </c>
+      <c r="AC11" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD11" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="93" t="s">
         <v>18</v>
       </c>
@@ -5299,7 +5440,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V12" s="131">
+      <c r="V12" s="96">
         <f t="shared" si="5"/>
         <v>3336.7842500000002</v>
       </c>
@@ -5311,8 +5452,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z12" s="92">
+        <f t="shared" si="9"/>
+        <v>2100.0269999999987</v>
+      </c>
+      <c r="AA12" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB12" s="92">
+        <f t="shared" si="11"/>
+        <v>620.975325</v>
+      </c>
+      <c r="AC12" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD12" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="93" t="s">
         <v>19</v>
       </c>
@@ -5369,7 +5538,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V13" s="131">
+      <c r="V13" s="96">
         <f t="shared" si="5"/>
         <v>3625.0093999999999</v>
       </c>
@@ -5381,8 +5550,36 @@
         <f t="shared" si="7"/>
         <v>519.7349999999991</v>
       </c>
-    </row>
-    <row r="14" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y13" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z13" s="92">
+        <f t="shared" si="9"/>
+        <v>801.28049999999928</v>
+      </c>
+      <c r="AA13" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB13" s="92">
+        <f t="shared" si="11"/>
+        <v>684.36500000000001</v>
+      </c>
+      <c r="AC13" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>oui</v>
+      </c>
+      <c r="AD13" s="92">
+        <f t="shared" si="13"/>
+        <v>737.74539999999797</v>
+      </c>
+      <c r="AE13" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="93" t="s">
         <v>20</v>
       </c>
@@ -5439,7 +5636,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V14" s="131">
+      <c r="V14" s="96">
         <f t="shared" si="5"/>
         <v>2672.39525</v>
       </c>
@@ -5451,8 +5648,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>non</v>
+      </c>
+      <c r="Z14" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB14" s="92">
+        <f t="shared" si="11"/>
+        <v>517.36865</v>
+      </c>
+      <c r="AC14" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD14" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="93" t="s">
         <v>21</v>
       </c>
@@ -5509,7 +5734,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V15" s="131">
+      <c r="V15" s="96">
         <f t="shared" si="5"/>
         <v>2780.9497999999999</v>
       </c>
@@ -5521,8 +5746,36 @@
         <f t="shared" si="7"/>
         <v>1061.7529999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>non</v>
+      </c>
+      <c r="Z15" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB15" s="92">
+        <f t="shared" si="11"/>
+        <v>545.83532500000001</v>
+      </c>
+      <c r="AC15" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD15" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="93" t="s">
         <v>22</v>
       </c>
@@ -5579,7 +5832,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V16" s="131">
+      <c r="V16" s="96">
         <f t="shared" si="5"/>
         <v>3371.5443500000001</v>
       </c>
@@ -5591,8 +5844,36 @@
         <f t="shared" si="7"/>
         <v>91.553999999999363</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z16" s="92">
+        <f t="shared" si="9"/>
+        <v>976.15800000000013</v>
+      </c>
+      <c r="AA16" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>non</v>
+      </c>
+      <c r="AB16" s="92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>oui</v>
+      </c>
+      <c r="AD16" s="92">
+        <f t="shared" si="13"/>
+        <v>296.93039999999922</v>
+      </c>
+      <c r="AE16" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>non</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="93" t="s">
         <v>23</v>
       </c>
@@ -5649,7 +5930,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V17" s="131">
+      <c r="V17" s="96">
         <f t="shared" si="5"/>
         <v>3172.6669999999999</v>
       </c>
@@ -5661,8 +5942,36 @@
         <f t="shared" si="7"/>
         <v>459.24599999999919</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z17" s="92">
+        <f t="shared" si="9"/>
+        <v>49.552500000000876</v>
+      </c>
+      <c r="AA17" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB17" s="92">
+        <f t="shared" si="11"/>
+        <v>605.95807500000001</v>
+      </c>
+      <c r="AC17" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>oui</v>
+      </c>
+      <c r="AD17" s="92">
+        <f t="shared" si="13"/>
+        <v>443.05289999999979</v>
+      </c>
+      <c r="AE17" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="93" t="s">
         <v>24</v>
       </c>
@@ -5719,7 +6028,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V18" s="131">
+      <c r="V18" s="96">
         <f t="shared" si="5"/>
         <v>3392.9933000000001</v>
       </c>
@@ -5731,8 +6040,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>non</v>
+      </c>
+      <c r="Z18" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>non</v>
+      </c>
+      <c r="AB18" s="92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD18" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="93" t="s">
         <v>25</v>
       </c>
@@ -5789,7 +6126,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V19" s="131">
+      <c r="V19" s="96">
         <f t="shared" si="5"/>
         <v>2433.5099499999997</v>
       </c>
@@ -5801,8 +6138,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>non</v>
+      </c>
+      <c r="Z19" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>non</v>
+      </c>
+      <c r="AB19" s="92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD19" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="93" t="s">
         <v>26</v>
       </c>
@@ -5859,7 +6224,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V20" s="131">
+      <c r="V20" s="96">
         <f t="shared" si="5"/>
         <v>3610.70795</v>
       </c>
@@ -5871,8 +6236,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z20" s="92">
+        <f t="shared" si="9"/>
+        <v>243.4770000000033</v>
+      </c>
+      <c r="AA20" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB20" s="92">
+        <f t="shared" si="11"/>
+        <v>677.40475000000004</v>
+      </c>
+      <c r="AC20" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD20" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="93" t="s">
         <v>27</v>
       </c>
@@ -5929,7 +6322,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V21" s="131">
+      <c r="V21" s="96">
         <f t="shared" si="5"/>
         <v>3009.6405499999996</v>
       </c>
@@ -5941,8 +6334,36 @@
         <f t="shared" si="7"/>
         <v>548.50200000000041</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>non</v>
+      </c>
+      <c r="Z21" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>non</v>
+      </c>
+      <c r="AB21" s="92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD21" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>non</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="93" t="s">
         <v>28</v>
       </c>
@@ -5999,7 +6420,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V22" s="131">
+      <c r="V22" s="96">
         <f t="shared" si="5"/>
         <v>3528.4550999999997</v>
       </c>
@@ -6011,8 +6432,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z22" s="92">
+        <f t="shared" si="9"/>
+        <v>1158.4244999999983</v>
+      </c>
+      <c r="AA22" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>non</v>
+      </c>
+      <c r="AB22" s="92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD22" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>non</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="93" t="s">
         <v>29</v>
       </c>
@@ -6069,7 +6518,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V23" s="131">
+      <c r="V23" s="96">
         <f t="shared" si="5"/>
         <v>2620.8300999999997</v>
       </c>
@@ -6081,8 +6530,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y23" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z23" s="92">
+        <f t="shared" si="9"/>
+        <v>1446.5234999999986</v>
+      </c>
+      <c r="AA23" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>oui</v>
+      </c>
+      <c r="AB23" s="92">
+        <f t="shared" si="11"/>
+        <v>498.37050000000005</v>
+      </c>
+      <c r="AC23" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD23" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>oui</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="92" t="s">
         <v>30</v>
       </c>
@@ -6139,7 +6616,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V24" s="131">
+      <c r="V24" s="96">
         <f t="shared" si="5"/>
         <v>3971.6017000000002</v>
       </c>
@@ -6151,8 +6628,36 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y24" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>oui</v>
+      </c>
+      <c r="Z24" s="92">
+        <f t="shared" si="9"/>
+        <v>2376.2640000000015</v>
+      </c>
+      <c r="AA24" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>non</v>
+      </c>
+      <c r="AB24" s="92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD24" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>non</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="92" t="s">
         <v>31</v>
       </c>
@@ -6209,7 +6714,7 @@
         <f t="shared" si="4"/>
         <v>oui</v>
       </c>
-      <c r="V25" s="131">
+      <c r="V25" s="96">
         <f t="shared" si="5"/>
         <v>3552.8549500000004</v>
       </c>
@@ -6221,8 +6726,36 @@
         <f t="shared" si="7"/>
         <v>481.38899999999995</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y25" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>non</v>
+      </c>
+      <c r="Z25" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="92" t="str">
+        <f t="shared" si="10"/>
+        <v>non</v>
+      </c>
+      <c r="AB25" s="92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="92" t="str">
+        <f t="shared" si="12"/>
+        <v>non</v>
+      </c>
+      <c r="AD25" s="92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="92" t="str">
+        <f t="shared" si="14"/>
+        <v>non</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I26" s="92">
         <f>SUM(I9:I25)</f>
         <v>1508346.0400000003</v>
@@ -6239,26 +6772,35 @@
         <f>SUM(O9:O25)</f>
         <v>2596154.92</v>
       </c>
-      <c r="R26" s="92">
+    </row>
+    <row r="27" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="92">
         <f>SUM(R9:R25)</f>
         <v>832655.625</v>
       </c>
-      <c r="S26" s="92">
+      <c r="S27" s="92">
         <f>SUM(S9:S25)</f>
         <v>67960.128899999996</v>
       </c>
-      <c r="W26" s="92" t="str">
-        <f t="shared" si="6"/>
-        <v>non</v>
-      </c>
-      <c r="X26" s="92">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V27" s="96">
+        <f>SUM(V9:V25)</f>
+        <v>53807.131099999991</v>
+      </c>
+      <c r="X27" s="92">
+        <f>SUM(X9:X25)</f>
+        <v>4659.7329999999974</v>
+      </c>
+      <c r="Z27" s="92">
+        <f>SUM(Z9:Z25)</f>
+        <v>9516.9704999999994</v>
+      </c>
+      <c r="AB27" s="92">
+        <f>SUM(AB9:AB25)</f>
+        <v>5241.0172249999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B29" s="92" t="s">
         <v>12</v>
       </c>
@@ -6272,20 +6814,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="4:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="4:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D35" s="95" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="92">
+        <f>(N9+O9)</f>
+        <v>200746.94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="R5:AH5"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6298,28 +6847,29 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="69" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="128.5" style="69" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="69" customWidth="1"/>
-    <col min="6" max="16384" width="11.6640625" style="69"/>
+    <col min="1" max="1" width="2.140625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="128.42578125" style="69" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="69" customWidth="1"/>
+    <col min="6" max="16384" width="11.7109375" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="127" t="s">
+    <row r="2" spans="2:4" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B2" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="136" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="88" t="s">
@@ -6327,25 +6877,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="129"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="70" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="129"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="71" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="129"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="130"/>
+    <row r="8" spans="2:4" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="138"/>
       <c r="D8" s="89" t="s">
         <v>56</v>
       </c>
@@ -6365,7 +6915,7 @@
       <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="136" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="88" t="s">
@@ -6373,43 +6923,43 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="129"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="129"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="68" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="129"/>
+      <c r="C15" s="137"/>
       <c r="D15" s="87" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="129"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="68" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="129"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="87" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="129"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="130"/>
+    <row r="19" spans="3:4" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="138"/>
       <c r="D19" s="89" t="s">
         <v>61</v>
       </c>
@@ -6426,6 +6976,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb47f970db01455029df431765be63e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36af26dbc36b6288b7ddae45b32d7e9e" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -6596,22 +7161,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91F433BC-15AF-48EB-999F-068986BDA452}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A95C6A-7188-4C30-A605-B3AAE23D1A88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0709663B-0354-4E80-8FF5-AF943404E891}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6628,29 +7203,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A95C6A-7188-4C30-A605-B3AAE23D1A88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91F433BC-15AF-48EB-999F-068986BDA452}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>